--- a/HW/DUT_pinmap.xlsx
+++ b/HW/DUT_pinmap.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="122">
   <si>
     <t xml:space="preserve">28F256</t>
   </si>
@@ -367,7 +367,13 @@
     <t xml:space="preserve">MFR: AD</t>
   </si>
   <si>
+    <t xml:space="preserve">Amd 01</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEV: B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev A4</t>
   </si>
   <si>
     <t xml:space="preserve">0x8D</t>
@@ -526,7 +532,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -536,10 +542,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,7 +597,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -793,7 +795,7 @@
   <dimension ref="A2:Z48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L46" activeCellId="0" sqref="L46"/>
+      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -807,87 +809,87 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="4.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="16" style="2" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="3" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="9.33"/>
   </cols>
   <sheetData>
-    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="str">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="str">
         <f aca="false">M2</f>
         <v>C64</v>
       </c>
-      <c r="Q2" s="5" t="str">
+      <c r="Q2" s="4" t="str">
         <f aca="false">L2</f>
         <v>C256</v>
       </c>
-      <c r="R2" s="5" t="str">
+      <c r="R2" s="4" t="str">
         <f aca="false">K2</f>
         <v>C512</v>
       </c>
-      <c r="S2" s="5" t="str">
+      <c r="S2" s="4" t="str">
         <f aca="false">J2</f>
         <v>C010</v>
       </c>
-      <c r="T2" s="5" t="str">
+      <c r="T2" s="4" t="str">
         <f aca="false">I2</f>
         <v>C020</v>
       </c>
-      <c r="U2" s="5" t="str">
+      <c r="U2" s="4" t="str">
         <f aca="false">H2</f>
         <v>C040</v>
       </c>
-      <c r="V2" s="5" t="str">
+      <c r="V2" s="4" t="str">
         <f aca="false">G2</f>
         <v>28F101</v>
       </c>
-      <c r="W2" s="5" t="str">
+      <c r="W2" s="4" t="str">
         <f aca="false">F2</f>
         <v>28F010</v>
       </c>
-      <c r="X2" s="5" t="str">
+      <c r="X2" s="4" t="str">
         <f aca="false">E2</f>
         <v>C011</v>
       </c>
-      <c r="Y2" s="5" t="str">
+      <c r="Y2" s="4" t="str">
         <f aca="false">D2</f>
         <v>29F040</v>
       </c>
-      <c r="Z2" s="5" t="str">
+      <c r="Z2" s="4" t="str">
         <f aca="false">C2</f>
         <v>28F256</v>
       </c>
@@ -926,10 +928,10 @@
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7" t="n">
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="n">
         <f aca="false">O4+1</f>
         <v>32</v>
       </c>
@@ -1001,121 +1003,121 @@
       <c r="M4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="7" t="n">
         <f aca="false">N3+1</f>
         <v>2</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="8" t="n">
         <f aca="false">O5+1</f>
         <v>31</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="10" t="s">
+      <c r="P4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="10" t="s">
+      <c r="X4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="7" t="n">
         <f aca="false">N4+1</f>
         <v>3</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="8" t="n">
         <f aca="false">O6+1</f>
         <v>30</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="10" t="s">
+      <c r="S5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="X5" s="10" t="s">
+      <c r="V5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Y5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1153,45 +1155,45 @@
       <c r="M6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="7" t="n">
         <f aca="false">N5+1</f>
         <v>4</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="8" t="n">
         <f aca="false">O7+1</f>
         <v>29</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1229,11 +1231,11 @@
       <c r="M7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="7" t="n">
         <f aca="false">N6+1</f>
         <v>5</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="8" t="n">
         <f aca="false">O8+1</f>
         <v>28</v>
       </c>
@@ -1305,11 +1307,11 @@
       <c r="M8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="7" t="n">
         <f aca="false">N7+1</f>
         <v>6</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="8" t="n">
         <f aca="false">O9+1</f>
         <v>27</v>
       </c>
@@ -1381,11 +1383,11 @@
       <c r="M9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="7" t="n">
         <f aca="false">N8+1</f>
         <v>7</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="O9" s="8" t="n">
         <f aca="false">O10+1</f>
         <v>26</v>
       </c>
@@ -1457,11 +1459,11 @@
       <c r="M10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="7" t="n">
         <f aca="false">N9+1</f>
         <v>8</v>
       </c>
-      <c r="O10" s="9" t="n">
+      <c r="O10" s="8" t="n">
         <f aca="false">O11+1</f>
         <v>25</v>
       </c>
@@ -1533,45 +1535,45 @@
       <c r="M11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="7" t="n">
         <f aca="false">N10+1</f>
         <v>9</v>
       </c>
-      <c r="O11" s="9" t="n">
+      <c r="O11" s="8" t="n">
         <f aca="false">O12+1</f>
         <v>24</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="10" t="s">
+      <c r="T11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W11" s="10" t="s">
+      <c r="W11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="X11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Y11" s="10" t="s">
+      <c r="Y11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Z11" s="10" t="s">
+      <c r="Z11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1609,11 +1611,11 @@
       <c r="M12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="N12" s="7" t="n">
         <f aca="false">N11+1</f>
         <v>10</v>
       </c>
-      <c r="O12" s="9" t="n">
+      <c r="O12" s="8" t="n">
         <f aca="false">O13+1</f>
         <v>23</v>
       </c>
@@ -1685,11 +1687,11 @@
       <c r="M13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="N13" s="7" t="n">
         <f aca="false">N12+1</f>
         <v>11</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="8" t="n">
         <f aca="false">O14+1</f>
         <v>22</v>
       </c>
@@ -1761,11 +1763,11 @@
       <c r="M14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="7" t="n">
         <f aca="false">N13+1</f>
         <v>12</v>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="O14" s="8" t="n">
         <f aca="false">O15+1</f>
         <v>21</v>
       </c>
@@ -1837,11 +1839,11 @@
       <c r="M15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="7" t="n">
         <f aca="false">N14+1</f>
         <v>13</v>
       </c>
-      <c r="O15" s="9" t="n">
+      <c r="O15" s="8" t="n">
         <f aca="false">O16+1</f>
         <v>20</v>
       </c>
@@ -1913,11 +1915,11 @@
       <c r="M16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="7" t="n">
         <f aca="false">N15+1</f>
         <v>14</v>
       </c>
-      <c r="O16" s="9" t="n">
+      <c r="O16" s="8" t="n">
         <f aca="false">O17+1</f>
         <v>19</v>
       </c>
@@ -1989,11 +1991,11 @@
       <c r="M17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="8" t="n">
+      <c r="N17" s="7" t="n">
         <f aca="false">N16+1</f>
         <v>15</v>
       </c>
-      <c r="O17" s="9" t="n">
+      <c r="O17" s="8" t="n">
         <f aca="false">O18+1</f>
         <v>18</v>
       </c>
@@ -2065,11 +2067,11 @@
       <c r="M18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="11" t="n">
+      <c r="N18" s="10" t="n">
         <f aca="false">N17+1</f>
         <v>16</v>
       </c>
-      <c r="O18" s="12" t="n">
+      <c r="O18" s="11" t="n">
         <f aca="false">N18+1</f>
         <v>17</v>
       </c>
@@ -2111,7 +2113,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2141,8 +2143,8 @@
       <c r="M20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15" t="s">
+      <c r="N20" s="13"/>
+      <c r="O20" s="14" t="s">
         <v>53</v>
       </c>
       <c r="P20" s="2" t="n">
@@ -2172,7 +2174,7 @@
       <c r="X20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="n">
+      <c r="Y20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Z20" s="2" t="n">
@@ -2180,7 +2182,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2210,8 +2212,8 @@
       <c r="M21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15" t="s">
+      <c r="N21" s="13"/>
+      <c r="O21" s="14" t="s">
         <v>56</v>
       </c>
       <c r="P21" s="2" t="n">
@@ -2241,7 +2243,7 @@
       <c r="X21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Z21" s="2" t="n">
@@ -2249,7 +2251,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="2" t="n">
@@ -2279,8 +2281,8 @@
       <c r="M22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="15" t="s">
+      <c r="N22" s="13"/>
+      <c r="O22" s="14" t="s">
         <v>59</v>
       </c>
       <c r="P22" s="2" t="n">
@@ -2318,7 +2320,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2348,8 +2350,8 @@
       <c r="M23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15" t="s">
+      <c r="N23" s="13"/>
+      <c r="O23" s="14" t="s">
         <v>61</v>
       </c>
       <c r="P23" s="2" t="n">
@@ -2387,7 +2389,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2417,8 +2419,8 @@
       <c r="M24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="15" t="s">
+      <c r="N24" s="13"/>
+      <c r="O24" s="14" t="s">
         <v>63</v>
       </c>
       <c r="P24" s="2" t="n">
@@ -2456,7 +2458,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="2" t="n">
@@ -2486,8 +2488,8 @@
       <c r="M25" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15" t="s">
+      <c r="N25" s="13"/>
+      <c r="O25" s="14" t="s">
         <v>66</v>
       </c>
       <c r="P25" s="2" t="n">
@@ -2517,7 +2519,7 @@
       <c r="X25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Y25" s="3" t="n">
+      <c r="Y25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Z25" s="2" t="n">
@@ -2525,7 +2527,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2561,56 +2563,56 @@
       <c r="M26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="16" t="s">
+      <c r="O26" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="17" t="str">
+      <c r="P26" s="16" t="str">
         <f aca="false">_xlfn.CONCAT("0x",RIGHT(_xlfn.CONCAT("00",BIN2HEX(_xlfn.CONCAT(P25,P24,P23,P22,P21,P20))),2))</f>
         <v>0x04</v>
       </c>
-      <c r="Q26" s="17" t="str">
+      <c r="Q26" s="16" t="str">
         <f aca="false">_xlfn.CONCAT("0x",RIGHT(_xlfn.CONCAT("00",BIN2HEX(_xlfn.CONCAT(Q25,Q24,Q23,Q22,Q21,Q20))),2))</f>
         <v>0x06</v>
       </c>
-      <c r="R26" s="17" t="str">
+      <c r="R26" s="16" t="str">
         <f aca="false">_xlfn.CONCAT("0x",RIGHT(_xlfn.CONCAT("00",BIN2HEX(_xlfn.CONCAT(R25,R24,R23,R22,R21,R20))),2))</f>
         <v>0x0C</v>
       </c>
-      <c r="S26" s="17" t="str">
+      <c r="S26" s="16" t="str">
         <f aca="false">_xlfn.CONCAT("0x",RIGHT(_xlfn.CONCAT("00",BIN2HEX(_xlfn.CONCAT(S25,S24,S23,S22,S21,S20))),2))</f>
         <v>0x21</v>
       </c>
-      <c r="T26" s="17" t="str">
+      <c r="T26" s="16" t="str">
         <f aca="false">_xlfn.CONCAT("0x",RIGHT(_xlfn.CONCAT("00",BIN2HEX(_xlfn.CONCAT(T25,T24,T23,T22,T21,T20))),2))</f>
         <v>0x21</v>
       </c>
-      <c r="U26" s="17" t="str">
+      <c r="U26" s="16" t="str">
         <f aca="false">_xlfn.CONCAT("0x",RIGHT(_xlfn.CONCAT("00",BIN2HEX(_xlfn.CONCAT(U25,U24,U23,U22,U21,U20))),2))</f>
         <v>0x01</v>
       </c>
-      <c r="V26" s="17" t="str">
+      <c r="V26" s="16" t="str">
         <f aca="false">_xlfn.CONCAT("0x",RIGHT(_xlfn.CONCAT("00",BIN2HEX(_xlfn.CONCAT(V25,V24,V23,V22,V21,V20))),2))</f>
         <v>0x21</v>
       </c>
-      <c r="W26" s="17" t="str">
+      <c r="W26" s="16" t="str">
         <f aca="false">_xlfn.CONCAT("0x",RIGHT(_xlfn.CONCAT("00",BIN2HEX(_xlfn.CONCAT(W25,W24,W23,W22,W21,W20))),2))</f>
         <v>0x21</v>
       </c>
-      <c r="X26" s="17" t="str">
+      <c r="X26" s="16" t="str">
         <f aca="false">_xlfn.CONCAT("0x",RIGHT(_xlfn.CONCAT("00",BIN2HEX(_xlfn.CONCAT(X25,X24,X23,X22,X21,X20))),2))</f>
         <v>0x06</v>
       </c>
-      <c r="Y26" s="17" t="str">
+      <c r="Y26" s="16" t="str">
         <f aca="false">_xlfn.CONCAT("0x",RIGHT(_xlfn.CONCAT("00",BIN2HEX(_xlfn.CONCAT(Y25,Y24,Y23,Y22,Y21,Y20))),2))</f>
         <v>0x20</v>
       </c>
-      <c r="Z26" s="17" t="str">
+      <c r="Z26" s="16" t="str">
         <f aca="false">_xlfn.CONCAT("0x",RIGHT(_xlfn.CONCAT("00",BIN2HEX(_xlfn.CONCAT(Z25,Z24,Z23,Z22,Z21,Z20))),2))</f>
         <v>0x21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2646,7 +2648,7 @@
       <c r="M27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="O27" s="14" t="s">
         <v>86</v>
       </c>
       <c r="P27" s="2" t="n">
@@ -2684,7 +2686,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>87</v>
       </c>
       <c r="E28" s="2"/>
@@ -2706,7 +2708,7 @@
       <c r="M28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="O28" s="14" t="s">
         <v>88</v>
       </c>
       <c r="P28" s="2" t="n">
@@ -2744,7 +2746,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E29" s="2"/>
@@ -2768,7 +2770,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>90</v>
       </c>
       <c r="E30" s="2"/>
@@ -2792,7 +2794,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="2"/>
@@ -2814,12 +2816,12 @@
       <c r="M31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="O31" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="2"/>
@@ -2828,13 +2830,13 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>95</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E34" s="2"/>
@@ -2846,7 +2848,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="2"/>
@@ -2858,7 +2860,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>100</v>
       </c>
       <c r="E36" s="2"/>
@@ -2870,7 +2872,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>101</v>
       </c>
       <c r="E37" s="2"/>
@@ -2882,7 +2884,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>103</v>
       </c>
       <c r="E38" s="2"/>
@@ -2894,7 +2896,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E39" s="2"/>
@@ -2906,7 +2908,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>107</v>
       </c>
       <c r="E40" s="2"/>
@@ -2918,7 +2920,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E41" s="2"/>
@@ -2930,7 +2932,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>111</v>
       </c>
       <c r="E42" s="2"/>
@@ -2942,7 +2944,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="2"/>
@@ -2954,9 +2956,12 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
+      <c r="A44" s="12"/>
       <c r="C44" s="2" t="s">
         <v>114</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="E44" s="2"/>
       <c r="L44" s="2" t="s">
@@ -2965,25 +2970,28 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="s">
-        <v>117</v>
+      <c r="A46" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18" t="s">
-        <v>118</v>
+      <c r="A47" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18" t="s">
-        <v>119</v>
+      <c r="A48" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
